--- a/notebooks/ensemble.xlsx
+++ b/notebooks/ensemble.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
   <si>
     <t>drug</t>
   </si>
@@ -94,121 +94,127 @@
     <t>Ensemble RF, KNN, SVM</t>
   </si>
   <si>
-    <t>[ 0.70909091  0.94262295]</t>
+    <t>[ 0.85454545  0.90163934]</t>
   </si>
   <si>
     <t>[ 0.94927536  0.89230769]</t>
   </si>
   <si>
-    <t>[ 0.81065089  0.86666667]</t>
-  </si>
-  <si>
-    <t>[ 0.90881459  0.57647059]</t>
-  </si>
-  <si>
-    <t>[ 0.7672956   0.83919598]</t>
-  </si>
-  <si>
-    <t>[ 0.57272727  0.72540984]</t>
-  </si>
-  <si>
-    <t>[ 0.94565217  0.85384615]</t>
-  </si>
-  <si>
-    <t>[ 0.65680473  0.73333333]</t>
-  </si>
-  <si>
-    <t>[ 0.87234043  0.50588235]</t>
-  </si>
-  <si>
-    <t>[ 0.83018868  0.94472362]</t>
-  </si>
-  <si>
-    <t>[ 0.70909091  0.92213115]</t>
-  </si>
-  <si>
-    <t>[ 0.96376812  0.86923077]</t>
-  </si>
-  <si>
-    <t>[ 0.73964497  0.72727273]</t>
-  </si>
-  <si>
-    <t>[ 0.87841945  0.52941176]</t>
-  </si>
-  <si>
-    <t>[ 0.7672956   0.83417085]</t>
-  </si>
-  <si>
-    <t>[ 0.84782609  0.8778626 ]</t>
-  </si>
-  <si>
-    <t>[ 0.86163522  0.81714286]</t>
-  </si>
-  <si>
-    <t>[ 0.89253731  0.62025316]</t>
-  </si>
-  <si>
-    <t>[ 0.79220779  0.81862745]</t>
-  </si>
-  <si>
-    <t>[ 0.48461538  0.79017857]</t>
-  </si>
-  <si>
-    <t>[ 0.93214286  0.88095238]</t>
-  </si>
-  <si>
-    <t>[ 0.71612903  0.67597765]</t>
-  </si>
-  <si>
-    <t>[ 0.92307692  0.8744186 ]</t>
-  </si>
-  <si>
-    <t>[ 0.80412371  0.87548638]</t>
-  </si>
-  <si>
-    <t>[ 0.93992933  0.91869919]</t>
-  </si>
-  <si>
-    <t>[ 0.73529412  0.73170732]</t>
-  </si>
-  <si>
-    <t>[ 0.78709677  0.81773399]</t>
-  </si>
-  <si>
-    <t>[ 0.77227723  0.90909091]</t>
-  </si>
-  <si>
-    <t>[ 0.83536585  0.84117647]</t>
-  </si>
-  <si>
-    <t>[ 0.90060241  0.59756098]</t>
-  </si>
-  <si>
-    <t>[ 0.77955272  0.82878412]</t>
-  </si>
-  <si>
-    <t>[ 0.525       0.75641026]</t>
-  </si>
-  <si>
-    <t>[ 0.93884892  0.8671875 ]</t>
-  </si>
-  <si>
-    <t>[ 0.68518519  0.70348837]</t>
-  </si>
-  <si>
-    <t>[ 0.87417219  0.90821256]</t>
-  </si>
-  <si>
-    <t>[ 0.75362319  0.89820359]</t>
-  </si>
-  <si>
-    <t>[ 0.95169946  0.89328063]</t>
-  </si>
-  <si>
-    <t>[ 0.73746313  0.72948328]</t>
-  </si>
-  <si>
-    <t>[ 0.77707006  0.82587065]</t>
+    <t>[ 0.83431953  0.83030303]</t>
+  </si>
+  <si>
+    <t>[ 0.92097264  0.50588235]</t>
+  </si>
+  <si>
+    <t>[ 0.8490566   0.81909548]</t>
+  </si>
+  <si>
+    <t>[ 0.75454545  0.64344262]</t>
+  </si>
+  <si>
+    <t>[ 0.95652174  0.85384615]</t>
+  </si>
+  <si>
+    <t>[ 0.68639053  0.7030303 ]</t>
+  </si>
+  <si>
+    <t>[ 0.88753799  0.4       ]</t>
+  </si>
+  <si>
+    <t>[ 0.87421384  0.92964824]</t>
+  </si>
+  <si>
+    <t>[ 0.88181818  0.9057377 ]</t>
+  </si>
+  <si>
+    <t>[ 0.9673913   0.86923077]</t>
+  </si>
+  <si>
+    <t>[ 0.75147929  0.70909091]</t>
+  </si>
+  <si>
+    <t>[ 0.90577508  0.38823529]</t>
+  </si>
+  <si>
+    <t>[ 0.81761006  0.80904523]</t>
+  </si>
+  <si>
+    <t>[ 0.79661017  0.93220339]</t>
+  </si>
+  <si>
+    <t>[ 0.87826087  0.62318841]</t>
+  </si>
+  <si>
+    <t>[ 0.78947368  0.87165775]</t>
+  </si>
+  <si>
+    <t>[ 0.48823529  0.85326087]</t>
+  </si>
+  <si>
+    <t>[ 0.93286219  0.90243902]</t>
+  </si>
+  <si>
+    <t>[ 0.7030303   0.68639053]</t>
+  </si>
+  <si>
+    <t>[ 0.85131195  0.47887324]</t>
+  </si>
+  <si>
+    <t>[ 0.90849673  0.90243902]</t>
+  </si>
+  <si>
+    <t>[ 0.80833333  0.94444444]</t>
+  </si>
+  <si>
+    <t>[ 0.94014085  0.92622951]</t>
+  </si>
+  <si>
+    <t>[ 0.72571429  0.73584906]</t>
+  </si>
+  <si>
+    <t>[ 0.85142857  0.515625  ]</t>
+  </si>
+  <si>
+    <t>[ 0.77380952  0.84736842]</t>
+  </si>
+  <si>
+    <t>[ 0.8245614   0.91666667]</t>
+  </si>
+  <si>
+    <t>[ 0.89910979  0.55844156]</t>
+  </si>
+  <si>
+    <t>[ 0.81818182  0.84455959]</t>
+  </si>
+  <si>
+    <t>[ 0.59285714  0.73364486]</t>
+  </si>
+  <si>
+    <t>[ 0.94454383  0.87747036]</t>
+  </si>
+  <si>
+    <t>[ 0.69461078  0.69461078]</t>
+  </si>
+  <si>
+    <t>[ 0.86904762  0.43589744]</t>
+  </si>
+  <si>
+    <t>[ 0.89102564  0.91584158]</t>
+  </si>
+  <si>
+    <t>[ 0.84347826  0.92468619]</t>
+  </si>
+  <si>
+    <t>[ 0.95357143  0.8968254 ]</t>
+  </si>
+  <si>
+    <t>[ 0.73837209  0.72222222]</t>
+  </si>
+  <si>
+    <t>[ 0.87776141  0.44295302]</t>
+  </si>
+  <si>
+    <t>[ 0.79510703  0.8277635 ]</t>
   </si>
 </sst>
 </file>
@@ -642,31 +648,31 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0.8406840684068406</v>
+        <v>0.8706140350877192</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>0.8700564971751411</v>
+        <v>0.8870056497175142</v>
       </c>
       <c r="H2">
-        <v>0.8700564971751412</v>
+        <v>0.8870056497175142</v>
       </c>
       <c r="I2">
-        <v>0.7090909090909091</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="J2">
-        <v>0.8700564971751412</v>
+        <v>0.8870056497175142</v>
       </c>
       <c r="K2">
-        <v>0.8628443411881845</v>
+        <v>0.8644067796610169</v>
       </c>
       <c r="L2">
-        <v>0.8700564971751412</v>
+        <v>0.8870056497175142</v>
       </c>
       <c r="M2">
-        <v>0.8258569299552907</v>
+        <v>0.8780923994038747</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
@@ -675,7 +681,7 @@
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
@@ -684,7 +690,7 @@
         <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -760,49 +766,49 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0.838271162123386</v>
+        <v>0.8323112784651246</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4">
-        <v>0.838323353293413</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="H4">
-        <v>0.8383233532934131</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="I4">
-        <v>0.8106508875739645</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="J4">
-        <v>0.8383233532934131</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="K4">
-        <v>0.8393890386343217</v>
+        <v>0.8323112784651246</v>
       </c>
       <c r="L4">
-        <v>0.8383233532934131</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="M4">
-        <v>0.8386587771203156</v>
+        <v>0.8323112784651246</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
         <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -819,34 +825,34 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.7490816926241552</v>
+        <v>0.7287756753632124</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5">
-        <v>0.8405797101449275</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="H5">
-        <v>0.8405797101449275</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="I5">
-        <v>0.9088145896656535</v>
+        <v>0.9209726443768997</v>
       </c>
       <c r="J5">
-        <v>0.8405797101449275</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="K5">
-        <v>0.7563952389948989</v>
+        <v>0.7507246376811594</v>
       </c>
       <c r="L5">
-        <v>0.8405797101449275</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="M5">
-        <v>0.7426425889504737</v>
+        <v>0.7134274986590381</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -855,7 +861,7 @@
         <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -878,34 +884,34 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0.8041684173808259</v>
+        <v>0.8313707018370231</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6">
-        <v>0.8072625698324022</v>
+        <v>0.8324022346368715</v>
       </c>
       <c r="H6">
-        <v>0.8072625698324022</v>
+        <v>0.8324022346368715</v>
       </c>
       <c r="I6">
-        <v>0.7672955974842768</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="J6">
-        <v>0.8072625698324022</v>
+        <v>0.8324022346368715</v>
       </c>
       <c r="K6">
-        <v>0.8054176215940922</v>
+        <v>0.8305657191106108</v>
       </c>
       <c r="L6">
-        <v>0.8072625698324022</v>
+        <v>0.8324022346368715</v>
       </c>
       <c r="M6">
-        <v>0.8032457886918871</v>
+        <v>0.8340760405802599</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
@@ -914,7 +920,7 @@
         <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -937,7 +943,7 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0.6407051282051281</v>
+        <v>0.6632510013351135</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -949,22 +955,22 @@
         <v>0.6779661016949152</v>
       </c>
       <c r="I7">
-        <v>0.5727272727272728</v>
+        <v>0.7545454545454545</v>
       </c>
       <c r="J7">
         <v>0.6779661016949152</v>
       </c>
       <c r="K7">
-        <v>0.637396978021978</v>
+        <v>0.6707480818414322</v>
       </c>
       <c r="L7">
         <v>0.6779661016949152</v>
       </c>
       <c r="M7">
-        <v>0.6490685543964232</v>
+        <v>0.698994038748137</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
@@ -973,7 +979,7 @@
         <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
         <v>31</v>
@@ -996,34 +1002,34 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>0.9030182104316546</v>
+        <v>0.9110070919979919</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
       <c r="G8">
-        <v>0.916256157635468</v>
+        <v>0.9236453201970443</v>
       </c>
       <c r="H8">
-        <v>0.916256157635468</v>
+        <v>0.9236453201970444</v>
       </c>
       <c r="I8">
-        <v>0.9456521739130435</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="J8">
-        <v>0.916256157635468</v>
+        <v>0.9236453201970444</v>
       </c>
       <c r="K8">
-        <v>0.906547619047619</v>
+        <v>0.9176506076014823</v>
       </c>
       <c r="L8">
-        <v>0.916256157635468</v>
+        <v>0.9236453201970444</v>
       </c>
       <c r="M8">
-        <v>0.8997491638795987</v>
+        <v>0.9051839464882943</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
         <v>32</v>
@@ -1032,7 +1038,7 @@
         <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
         <v>32</v>
@@ -1055,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.6943367786391043</v>
+        <v>0.6946107784431137</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1067,22 +1073,22 @@
         <v>0.6946107784431138</v>
       </c>
       <c r="I9">
-        <v>0.6568047337278107</v>
+        <v>0.6863905325443787</v>
       </c>
       <c r="J9">
         <v>0.6946107784431138</v>
       </c>
       <c r="K9">
-        <v>0.6960533429446747</v>
+        <v>0.6947104177873409</v>
       </c>
       <c r="L9">
         <v>0.6946107784431138</v>
       </c>
       <c r="M9">
-        <v>0.695069033530572</v>
+        <v>0.6947104177873409</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
         <v>33</v>
@@ -1091,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s">
         <v>33</v>
@@ -1114,49 +1120,49 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>0.6891113892365457</v>
+        <v>0.6524725274725275</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.7971014492753623</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="H10">
-        <v>0.7971014492753623</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="I10">
-        <v>0.8723404255319149</v>
+        <v>0.8875379939209727</v>
       </c>
       <c r="J10">
-        <v>0.7971014492753623</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="K10">
-        <v>0.6891113892365457</v>
+        <v>0.6650925963946946</v>
       </c>
       <c r="L10">
-        <v>0.7971014492753623</v>
+        <v>0.7874396135265701</v>
       </c>
       <c r="M10">
-        <v>0.6891113892365457</v>
+        <v>0.6437689969604863</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
         <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1173,31 +1179,31 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>0.8911923729084685</v>
+        <v>0.9034336125920285</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11">
-        <v>0.8938547486033519</v>
+        <v>0.9050279329608939</v>
       </c>
       <c r="H11">
-        <v>0.8938547486033519</v>
+        <v>0.9050279329608939</v>
       </c>
       <c r="I11">
-        <v>0.8301886792452831</v>
+        <v>0.8742138364779874</v>
       </c>
       <c r="J11">
-        <v>0.8938547486033519</v>
+        <v>0.9050279329608939</v>
       </c>
       <c r="K11">
-        <v>0.898747763864043</v>
+        <v>0.9054678782081939</v>
       </c>
       <c r="L11">
-        <v>0.8938547486033519</v>
+        <v>0.9050279329608939</v>
       </c>
       <c r="M11">
-        <v>0.8874561486678676</v>
+        <v>0.9019310388420088</v>
       </c>
       <c r="N11" t="s">
         <v>48</v>
@@ -1206,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" t="s">
         <v>48</v>
@@ -1215,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1232,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>0.8259133906100842</v>
+        <v>0.8840822266690922</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
       </c>
       <c r="G12">
-        <v>0.8559322033898306</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="H12">
-        <v>0.8559322033898306</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="I12">
-        <v>0.7090909090909091</v>
+        <v>0.8818181818181818</v>
       </c>
       <c r="J12">
-        <v>0.8559322033898306</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="K12">
-        <v>0.8398050463315817</v>
+        <v>0.8763888888888889</v>
       </c>
       <c r="L12">
-        <v>0.8559322033898306</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="M12">
-        <v>0.8156110283159463</v>
+        <v>0.8937779433681072</v>
       </c>
       <c r="N12" t="s">
         <v>49</v>
@@ -1265,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
         <v>49</v>
@@ -1274,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1291,31 +1297,31 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0.9224900478692188</v>
+        <v>0.9251984126984126</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13">
-        <v>0.9334975369458128</v>
+        <v>0.9359605911330049</v>
       </c>
       <c r="H13">
-        <v>0.9334975369458128</v>
+        <v>0.9359605911330049</v>
       </c>
       <c r="I13">
-        <v>0.9637681159420289</v>
+        <v>0.9673913043478261</v>
       </c>
       <c r="J13">
-        <v>0.9334975369458128</v>
+        <v>0.9359605911330049</v>
       </c>
       <c r="K13">
-        <v>0.929314257806889</v>
+        <v>0.9331851766335719</v>
       </c>
       <c r="L13">
-        <v>0.9334975369458128</v>
+        <v>0.9359605911330049</v>
       </c>
       <c r="M13">
-        <v>0.916499442586399</v>
+        <v>0.9183110367892977</v>
       </c>
       <c r="N13" t="s">
         <v>50</v>
@@ -1324,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="s">
         <v>50</v>
@@ -1333,7 +1339,7 @@
         <v>37</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1350,31 +1356,31 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>0.733473204759215</v>
+        <v>0.7302971576227391</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>0.7335329341317365</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="H14">
-        <v>0.7335329341317365</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="I14">
-        <v>0.7396449704142012</v>
+        <v>0.7514792899408284</v>
       </c>
       <c r="J14">
-        <v>0.7335329341317365</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="K14">
-        <v>0.7335007173601148</v>
+        <v>0.7307816711590296</v>
       </c>
       <c r="L14">
-        <v>0.7335329341317365</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="M14">
-        <v>0.7334588488434642</v>
+        <v>0.7302850995158687</v>
       </c>
       <c r="N14" t="s">
         <v>51</v>
@@ -1383,7 +1389,7 @@
         <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
         <v>51</v>
@@ -1392,7 +1398,7 @@
         <v>38</v>
       </c>
       <c r="S14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1409,49 +1415,49 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>0.7039156087967102</v>
+        <v>0.6603572169890581</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
       </c>
       <c r="G15">
-        <v>0.8067632850241546</v>
+        <v>0.7995169082125604</v>
       </c>
       <c r="H15">
-        <v>0.8067632850241546</v>
+        <v>0.7995169082125604</v>
       </c>
       <c r="I15">
-        <v>0.878419452887538</v>
+        <v>0.9057750759878419</v>
       </c>
       <c r="J15">
-        <v>0.8067632850241546</v>
+        <v>0.7995169082125604</v>
       </c>
       <c r="K15">
-        <v>0.7039156087967102</v>
+        <v>0.6835267857142857</v>
       </c>
       <c r="L15">
-        <v>0.8067632850241546</v>
+        <v>0.7995169082125604</v>
       </c>
       <c r="M15">
-        <v>0.7039156087967102</v>
+        <v>0.6470051850527445</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
         <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1468,49 +1474,49 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>0.8014703552302183</v>
+        <v>0.8114352648915513</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
       </c>
       <c r="G16">
-        <v>0.8044692737430168</v>
+        <v>0.8128491620111733</v>
       </c>
       <c r="H16">
-        <v>0.8044692737430168</v>
+        <v>0.8128491620111732</v>
       </c>
       <c r="I16">
-        <v>0.7672955974842768</v>
+        <v>0.8176100628930818</v>
       </c>
       <c r="J16">
-        <v>0.8044692737430168</v>
+        <v>0.8128491620111732</v>
       </c>
       <c r="K16">
-        <v>0.8024153821706659</v>
+        <v>0.8105889724310777</v>
       </c>
       <c r="L16">
-        <v>0.8044692737430168</v>
+        <v>0.8128491620111732</v>
       </c>
       <c r="M16">
-        <v>0.8007332258778168</v>
+        <v>0.8133276445118676</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
         <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
